--- a/test2.xlsx
+++ b/test2.xlsx
@@ -19,19 +19,19 @@
     <t>Rune Age</t>
   </si>
   <si>
-    <t>9999</t>
+    <t>11872</t>
   </si>
   <si>
     <t>Rune Cha</t>
   </si>
   <si>
-    <t>9000</t>
+    <t>9688</t>
   </si>
   <si>
     <t>Rune Fo</t>
   </si>
   <si>
-    <t>3670</t>
+    <t>3980</t>
   </si>
 </sst>
 </file>
